--- a/Original/Попадюк-20.10.23.xlsx
+++ b/Original/Попадюк-20.10.23.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алта\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6F9805-25CC-485A-B8F8-F99EE324D5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96104339-A6E3-40F9-92BC-4A729837F93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15240" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -585,35 +585,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Лист1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="1" customWidth="1"/>
     <col min="12" max="13" width="14" style="1" customWidth="1"/>
-    <col min="14" max="256" width="10.28515625" customWidth="1"/>
+    <col min="14" max="256" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="20" t="s">
         <v>0</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="21"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6">
         <v>1</v>
@@ -709,7 +709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -805,7 +805,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6">
         <v>6</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
         <v>8</v>
       </c>
@@ -965,7 +965,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>9</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6">
         <v>10</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>11</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>12</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
         <v>13</v>
       </c>
@@ -1105,7 +1105,10 @@
       <c r="E17" s="9">
         <v>13080</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17" si="2">E17*1.2</f>
+        <v>15696</v>
+      </c>
       <c r="G17" s="8">
         <v>1</v>
       </c>
@@ -1114,14 +1117,14 @@
       </c>
       <c r="I17" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15700</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="17" t="s">
         <v>22</v>
